--- a/assets/excel/whz-boys.xlsx
+++ b/assets/excel/whz-boys.xlsx
@@ -29,688 +29,688 @@
     <t>Height</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>0;5.8</t>
+  </si>
+  <si>
+    <t>5.9;6.2</t>
+  </si>
+  <si>
+    <t>6.3;8.8</t>
+  </si>
+  <si>
+    <t>8.9;9.6</t>
+  </si>
+  <si>
+    <t>0;6.0</t>
+  </si>
+  <si>
+    <t>6.1;6.4</t>
+  </si>
+  <si>
+    <t>6.5;9.1</t>
+  </si>
+  <si>
+    <t>9.2;9.9</t>
+  </si>
+  <si>
+    <t>0;6.1</t>
+  </si>
+  <si>
+    <t>6.2;6.6</t>
+  </si>
+  <si>
+    <t>6.7;9.4</t>
+  </si>
+  <si>
+    <t>9.5;10.2</t>
+  </si>
+  <si>
+    <t>0;6.3</t>
+  </si>
+  <si>
+    <t>6.4;6.8</t>
+  </si>
+  <si>
+    <t>6.9;9.6</t>
+  </si>
+  <si>
+    <t>9.7;10.5</t>
+  </si>
+  <si>
+    <t>0;6.5</t>
+  </si>
+  <si>
+    <t>6.6;7.0</t>
+  </si>
+  <si>
+    <t>7.1;9.9</t>
+  </si>
+  <si>
+    <t>10.0;10.8</t>
+  </si>
+  <si>
+    <t>0;6.7</t>
+  </si>
+  <si>
+    <t>6.8;7.2</t>
+  </si>
+  <si>
+    <t>7.3;10.2</t>
+  </si>
+  <si>
+    <t>10.3;11.1</t>
+  </si>
+  <si>
+    <t>0;6.8</t>
+  </si>
+  <si>
+    <t>6.9;7.4</t>
+  </si>
+  <si>
+    <t>7.5;10.4</t>
+  </si>
+  <si>
+    <t>10.5;11.4</t>
+  </si>
+  <si>
+    <t>0;7.0</t>
+  </si>
+  <si>
+    <t>7.1;7.6</t>
+  </si>
+  <si>
+    <t>7.7;10.7</t>
+  </si>
+  <si>
+    <t>10.8;11.7</t>
+  </si>
+  <si>
+    <t>0;7.2</t>
+  </si>
+  <si>
+    <t>7.3;7.8</t>
+  </si>
+  <si>
+    <t>7.9;11.0</t>
+  </si>
+  <si>
+    <t>11.1;12.0</t>
+  </si>
+  <si>
+    <t>0;7.3</t>
+  </si>
+  <si>
+    <t>7.4;7.9</t>
+  </si>
+  <si>
+    <t>8.0;11.2</t>
+  </si>
+  <si>
+    <t>11.3;12.2</t>
+  </si>
+  <si>
+    <t>0;7.5</t>
+  </si>
+  <si>
+    <t>7.6;8.1</t>
+  </si>
+  <si>
+    <t>8.2;11.4</t>
+  </si>
+  <si>
+    <t>11.5;12.5</t>
+  </si>
+  <si>
+    <t>0;7.6</t>
+  </si>
+  <si>
+    <t>7.7;8.3</t>
+  </si>
+  <si>
+    <t>8.4;11.7</t>
+  </si>
+  <si>
+    <t>11.8;12.8</t>
+  </si>
+  <si>
+    <t>0;7.8</t>
+  </si>
+  <si>
+    <t>7.9;8.4</t>
+  </si>
+  <si>
+    <t>8.5;11.9</t>
+  </si>
+  <si>
+    <t>12.0;13.0</t>
+  </si>
+  <si>
+    <t>0;7.9</t>
+  </si>
+  <si>
+    <t>8.0;8.6</t>
+  </si>
+  <si>
+    <t>8.7;12.1</t>
+  </si>
+  <si>
+    <t>12.2;13.3</t>
+  </si>
+  <si>
+    <t>0;8.1</t>
+  </si>
+  <si>
+    <t>8.2;8.7</t>
+  </si>
+  <si>
+    <t>8.8;12.3</t>
+  </si>
+  <si>
+    <t>12.4;13.5</t>
+  </si>
+  <si>
+    <t>0;8.2</t>
+  </si>
+  <si>
+    <t>8.3;8.9</t>
+  </si>
+  <si>
+    <t>9.0;12.6</t>
+  </si>
+  <si>
+    <t>12.7;13.7</t>
+  </si>
+  <si>
+    <t>0;8.4</t>
+  </si>
+  <si>
+    <t>8.5;9.1</t>
+  </si>
+  <si>
+    <t>9.2;12.8</t>
+  </si>
+  <si>
+    <t>12.9;14.0</t>
+  </si>
+  <si>
+    <t>0;8.6</t>
+  </si>
+  <si>
+    <t>8.7;9.2</t>
+  </si>
+  <si>
+    <t>9.3;13.0</t>
+  </si>
+  <si>
+    <t>13.1;14.2</t>
+  </si>
+  <si>
+    <t>0;8.7</t>
+  </si>
+  <si>
+    <t>8.8;9.4</t>
+  </si>
+  <si>
+    <t>9.5;13.3</t>
+  </si>
+  <si>
+    <t>13.4;14.5</t>
+  </si>
+  <si>
+    <t>0;8.9</t>
+  </si>
+  <si>
+    <t>9.0;9.6</t>
+  </si>
+  <si>
+    <t>9.7;13.5</t>
+  </si>
+  <si>
+    <t>13.6;14.8</t>
+  </si>
+  <si>
+    <t>0;9.1</t>
+  </si>
+  <si>
+    <t>10.0;13.8</t>
+  </si>
+  <si>
+    <t>13.9;15.1</t>
+  </si>
+  <si>
+    <t>0;9.3</t>
+  </si>
+  <si>
+    <t>9.4;10.1</t>
+  </si>
+  <si>
+    <t>10.2;14.1</t>
+  </si>
+  <si>
+    <t>14.2;15.4</t>
+  </si>
+  <si>
+    <t>0;9.5</t>
+  </si>
+  <si>
+    <t>9.6;10.3</t>
+  </si>
+  <si>
+    <t>10.4;14.4</t>
+  </si>
+  <si>
+    <t>14.5;15.7</t>
+  </si>
+  <si>
+    <t>0;9.7</t>
+  </si>
+  <si>
+    <t>9.8;10.5</t>
+  </si>
+  <si>
+    <t>10.6;14.7</t>
+  </si>
+  <si>
+    <t>14.8;16.0</t>
+  </si>
+  <si>
+    <t>0;9.9</t>
+  </si>
+  <si>
+    <t>10.0;10.7</t>
+  </si>
+  <si>
+    <t>10.8;14.9</t>
+  </si>
+  <si>
+    <t>15.0;16.3</t>
+  </si>
+  <si>
+    <t>0;10.1</t>
+  </si>
+  <si>
+    <t>10.2;10.9</t>
+  </si>
+  <si>
+    <t>11.0;15.2</t>
+  </si>
+  <si>
+    <t>15.3;16.6</t>
+  </si>
+  <si>
+    <t>0;10.3</t>
+  </si>
+  <si>
+    <t>10.4;11.1</t>
+  </si>
+  <si>
+    <t>11.2;15.5</t>
+  </si>
+  <si>
+    <t>15.6;16.9</t>
+  </si>
+  <si>
+    <t>0;10.5</t>
+  </si>
+  <si>
+    <t>10.6;11.3</t>
+  </si>
+  <si>
+    <t>11.4;15.8</t>
+  </si>
+  <si>
+    <t>15.9;17.2</t>
+  </si>
+  <si>
+    <t>0;10.7</t>
+  </si>
+  <si>
+    <t>10.8;11.5</t>
+  </si>
+  <si>
+    <t>11.6;16.0</t>
+  </si>
+  <si>
+    <t>16.1;17.5</t>
+  </si>
+  <si>
+    <t>0;10.9</t>
+  </si>
+  <si>
+    <t>11.0;11.7</t>
+  </si>
+  <si>
+    <t>11.8;16.3</t>
+  </si>
+  <si>
+    <t>16.4;17.8</t>
+  </si>
+  <si>
+    <t>0;11.0</t>
+  </si>
+  <si>
+    <t>11.1;11.9</t>
+  </si>
+  <si>
+    <t>12.0;16.6</t>
+  </si>
+  <si>
+    <t>16.7;18.1</t>
+  </si>
+  <si>
+    <t>0;11.2</t>
+  </si>
+  <si>
+    <t>11.3;12.1</t>
+  </si>
+  <si>
+    <t>12.2;16.9</t>
+  </si>
+  <si>
+    <t>17.0;18.4</t>
+  </si>
+  <si>
+    <t>0;11.4</t>
+  </si>
+  <si>
+    <t>11.5;12.3</t>
+  </si>
+  <si>
+    <t>12.4;17.2</t>
+  </si>
+  <si>
+    <t>17.3;18.8</t>
+  </si>
+  <si>
+    <t>0;11.6</t>
+  </si>
+  <si>
+    <t>11.7;12.5</t>
+  </si>
+  <si>
+    <t>12.6;17.5</t>
+  </si>
+  <si>
+    <t>17.6;19.1</t>
+  </si>
+  <si>
+    <t>0;11.8</t>
+  </si>
+  <si>
+    <t>11.9;12.8</t>
+  </si>
+  <si>
+    <t>12.9;17.9</t>
+  </si>
+  <si>
+    <t>18.0;19.5</t>
+  </si>
+  <si>
+    <t>0;12.0</t>
+  </si>
+  <si>
+    <t>12.1;13.0</t>
+  </si>
+  <si>
+    <t>13.1;18.2</t>
+  </si>
+  <si>
+    <t>18.3;19.9</t>
+  </si>
+  <si>
+    <t>0;12.2</t>
+  </si>
+  <si>
+    <t>12.3;13.2</t>
+  </si>
+  <si>
+    <t>13.3;18.5</t>
+  </si>
+  <si>
+    <t>18.6;20.3</t>
+  </si>
+  <si>
+    <t>0;12.4</t>
+  </si>
+  <si>
+    <t>12.5;13.5</t>
+  </si>
+  <si>
+    <t>13.6;18.9</t>
+  </si>
+  <si>
+    <t>19.0;20.7</t>
+  </si>
+  <si>
+    <t>0;12.7</t>
+  </si>
+  <si>
+    <t>12.8;13.7</t>
+  </si>
+  <si>
+    <t>13.8;19.3</t>
+  </si>
+  <si>
+    <t>19.4;21.1</t>
+  </si>
+  <si>
+    <t>0;12.9</t>
+  </si>
+  <si>
+    <t>13.0;13.9</t>
+  </si>
+  <si>
+    <t>14.0;19.7</t>
+  </si>
+  <si>
+    <t>19.8;21.6</t>
+  </si>
+  <si>
+    <t>0;13.1</t>
+  </si>
+  <si>
+    <t>13.2;14.2</t>
+  </si>
+  <si>
+    <t>14.3;20.1</t>
+  </si>
+  <si>
+    <t>20.2;22.0</t>
+  </si>
+  <si>
+    <t>0;13.3</t>
+  </si>
+  <si>
+    <t>13.4;14.4</t>
+  </si>
+  <si>
+    <t>14.5;20.5</t>
+  </si>
+  <si>
+    <t>20.6;22.5</t>
+  </si>
+  <si>
+    <t>0;13.6</t>
+  </si>
+  <si>
+    <t>13.7;14.7</t>
+  </si>
+  <si>
+    <t>14.8;20.9</t>
+  </si>
+  <si>
+    <t>21.0;22.9</t>
+  </si>
+  <si>
+    <t>0;13.8</t>
+  </si>
+  <si>
+    <t>13.9;15.0</t>
+  </si>
+  <si>
+    <t>15.1;21.3</t>
+  </si>
+  <si>
+    <t>21.4;23.4</t>
+  </si>
+  <si>
+    <t>0;14.0</t>
+  </si>
+  <si>
+    <t>14.1;15.2</t>
+  </si>
+  <si>
+    <t>15.3;21.8</t>
+  </si>
+  <si>
+    <t>21.9;23.9</t>
+  </si>
+  <si>
+    <t>0;14.3</t>
+  </si>
+  <si>
+    <t>14.4;15.5</t>
+  </si>
+  <si>
+    <t>15.6;22.2</t>
+  </si>
+  <si>
+    <t>22.3;24.4</t>
+  </si>
+  <si>
+    <t>0;14.5</t>
+  </si>
+  <si>
+    <t>14.6;15.8</t>
+  </si>
+  <si>
+    <t>15.9;22.7</t>
+  </si>
+  <si>
+    <t>22.8;25.0</t>
+  </si>
+  <si>
+    <t>0;14.8</t>
+  </si>
+  <si>
+    <t>14.9;16.1</t>
+  </si>
+  <si>
+    <t>16.2;23.1</t>
+  </si>
+  <si>
+    <t>23.2;25.5</t>
+  </si>
+  <si>
+    <t>0;15.1</t>
+  </si>
+  <si>
+    <t>15.2;16.4</t>
+  </si>
+  <si>
+    <t>16.5;23.6</t>
+  </si>
+  <si>
+    <t>23.7;26.0</t>
+  </si>
+  <si>
+    <t>0;15.3</t>
+  </si>
+  <si>
+    <t>15.4;16.7</t>
+  </si>
+  <si>
+    <t>16.8;24.1</t>
+  </si>
+  <si>
+    <t>24.2;26.6</t>
+  </si>
+  <si>
+    <t>0;15.6</t>
+  </si>
+  <si>
+    <t>15.7;17.0</t>
+  </si>
+  <si>
+    <t>17.1;24.6</t>
+  </si>
+  <si>
+    <t>24.7;27.2</t>
+  </si>
+  <si>
+    <t>0;15.9</t>
+  </si>
+  <si>
+    <t>16.0;17.3</t>
+  </si>
+  <si>
+    <t>17.4;25.1</t>
+  </si>
+  <si>
+    <t>25.2;27.8</t>
+  </si>
+  <si>
+    <t>0;16.1</t>
+  </si>
+  <si>
+    <t>16.2;17.6</t>
+  </si>
+  <si>
+    <t>17.7;25.6</t>
+  </si>
+  <si>
+    <t>25.7;28.3</t>
+  </si>
+  <si>
+    <t>0;16.4</t>
+  </si>
+  <si>
+    <t>16.5;17.9</t>
+  </si>
+  <si>
+    <t>18.0;26.1</t>
+  </si>
+  <si>
+    <t>26.2;28.9</t>
+  </si>
+  <si>
+    <t>0;16.7</t>
+  </si>
+  <si>
+    <t>16.8;18.2</t>
+  </si>
+  <si>
+    <t>18.3;26.6</t>
+  </si>
+  <si>
+    <t>26.7;29.5</t>
+  </si>
+  <si>
+    <t>0;17.0</t>
+  </si>
+  <si>
+    <t>17.1;18.5</t>
+  </si>
+  <si>
+    <t>18.6;27.2</t>
+  </si>
+  <si>
+    <t>27.3;30.1</t>
+  </si>
+  <si>
     <t>SAM</t>
   </si>
   <si>
     <t>MAM</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Overweight</t>
-  </si>
-  <si>
-    <t>Obesity</t>
-  </si>
-  <si>
-    <t>0;5.8</t>
-  </si>
-  <si>
-    <t>5.9;6.2</t>
-  </si>
-  <si>
-    <t>6.3;8.8</t>
-  </si>
-  <si>
-    <t>8.9;9.6</t>
-  </si>
-  <si>
-    <t>0;6.0</t>
-  </si>
-  <si>
-    <t>6.1;6.4</t>
-  </si>
-  <si>
-    <t>6.5;9.1</t>
-  </si>
-  <si>
-    <t>9.2;9.9</t>
-  </si>
-  <si>
-    <t>0;6.1</t>
-  </si>
-  <si>
-    <t>6.2;6.6</t>
-  </si>
-  <si>
-    <t>6.7;9.4</t>
-  </si>
-  <si>
-    <t>9.5;10.2</t>
-  </si>
-  <si>
-    <t>0;6.3</t>
-  </si>
-  <si>
-    <t>6.4;6.8</t>
-  </si>
-  <si>
-    <t>6.9;9.6</t>
-  </si>
-  <si>
-    <t>9.7;10.5</t>
-  </si>
-  <si>
-    <t>0;6.5</t>
-  </si>
-  <si>
-    <t>6.6;7.0</t>
-  </si>
-  <si>
-    <t>7.1;9.9</t>
-  </si>
-  <si>
-    <t>10.0;10.8</t>
-  </si>
-  <si>
-    <t>0;6.7</t>
-  </si>
-  <si>
-    <t>6.8;7.2</t>
-  </si>
-  <si>
-    <t>7.3;10.2</t>
-  </si>
-  <si>
-    <t>10.3;11.1</t>
-  </si>
-  <si>
-    <t>0;6.8</t>
-  </si>
-  <si>
-    <t>6.9;7.4</t>
-  </si>
-  <si>
-    <t>7.5;10.4</t>
-  </si>
-  <si>
-    <t>10.5;11.4</t>
-  </si>
-  <si>
-    <t>0;7.0</t>
-  </si>
-  <si>
-    <t>7.1;7.6</t>
-  </si>
-  <si>
-    <t>7.7;10.7</t>
-  </si>
-  <si>
-    <t>10.8;11.7</t>
-  </si>
-  <si>
-    <t>0;7.2</t>
-  </si>
-  <si>
-    <t>7.3;7.8</t>
-  </si>
-  <si>
-    <t>7.9;11.0</t>
-  </si>
-  <si>
-    <t>11.1;12.0</t>
-  </si>
-  <si>
-    <t>0;7.3</t>
-  </si>
-  <si>
-    <t>7.4;7.9</t>
-  </si>
-  <si>
-    <t>8.0;11.2</t>
-  </si>
-  <si>
-    <t>11.3;12.2</t>
-  </si>
-  <si>
-    <t>0;7.5</t>
-  </si>
-  <si>
-    <t>7.6;8.1</t>
-  </si>
-  <si>
-    <t>8.2;11.4</t>
-  </si>
-  <si>
-    <t>11.5;12.5</t>
-  </si>
-  <si>
-    <t>0;7.6</t>
-  </si>
-  <si>
-    <t>7.7;8.3</t>
-  </si>
-  <si>
-    <t>8.4;11.7</t>
-  </si>
-  <si>
-    <t>11.8;12.8</t>
-  </si>
-  <si>
-    <t>0;7.8</t>
-  </si>
-  <si>
-    <t>7.9;8.4</t>
-  </si>
-  <si>
-    <t>8.5;11.9</t>
-  </si>
-  <si>
-    <t>12.0;13.0</t>
-  </si>
-  <si>
-    <t>0;7.9</t>
-  </si>
-  <si>
-    <t>8.0;8.6</t>
-  </si>
-  <si>
-    <t>8.7;12.1</t>
-  </si>
-  <si>
-    <t>12.2;13.3</t>
-  </si>
-  <si>
-    <t>0;8.1</t>
-  </si>
-  <si>
-    <t>8.2;8.7</t>
-  </si>
-  <si>
-    <t>8.8;12.3</t>
-  </si>
-  <si>
-    <t>12.4;13.5</t>
-  </si>
-  <si>
-    <t>0;8.2</t>
-  </si>
-  <si>
-    <t>8.3;8.9</t>
-  </si>
-  <si>
-    <t>9.0;12.6</t>
-  </si>
-  <si>
-    <t>12.7;13.7</t>
-  </si>
-  <si>
-    <t>0;8.4</t>
-  </si>
-  <si>
-    <t>8.5;9.1</t>
-  </si>
-  <si>
-    <t>9.2;12.8</t>
-  </si>
-  <si>
-    <t>12.9;14.0</t>
-  </si>
-  <si>
-    <t>0;8.6</t>
-  </si>
-  <si>
-    <t>8.7;9.2</t>
-  </si>
-  <si>
-    <t>9.3;13.0</t>
-  </si>
-  <si>
-    <t>13.1;14.2</t>
-  </si>
-  <si>
-    <t>0;8.7</t>
-  </si>
-  <si>
-    <t>8.8;9.4</t>
-  </si>
-  <si>
-    <t>9.5;13.3</t>
-  </si>
-  <si>
-    <t>13.4;14.5</t>
-  </si>
-  <si>
-    <t>0;8.9</t>
-  </si>
-  <si>
-    <t>9.0;9.6</t>
-  </si>
-  <si>
-    <t>9.7;13.5</t>
-  </si>
-  <si>
-    <t>13.6;14.8</t>
-  </si>
-  <si>
-    <t>0;9.1</t>
-  </si>
-  <si>
-    <t>10.0;13.8</t>
-  </si>
-  <si>
-    <t>13.9;15.1</t>
-  </si>
-  <si>
-    <t>0;9.3</t>
-  </si>
-  <si>
-    <t>9.4;10.1</t>
-  </si>
-  <si>
-    <t>10.2;14.1</t>
-  </si>
-  <si>
-    <t>14.2;15.4</t>
-  </si>
-  <si>
-    <t>0;9.5</t>
-  </si>
-  <si>
-    <t>9.6;10.3</t>
-  </si>
-  <si>
-    <t>10.4;14.4</t>
-  </si>
-  <si>
-    <t>14.5;15.7</t>
-  </si>
-  <si>
-    <t>0;9.7</t>
-  </si>
-  <si>
-    <t>9.8;10.5</t>
-  </si>
-  <si>
-    <t>10.6;14.7</t>
-  </si>
-  <si>
-    <t>14.8;16.0</t>
-  </si>
-  <si>
-    <t>0;9.9</t>
-  </si>
-  <si>
-    <t>10.0;10.7</t>
-  </si>
-  <si>
-    <t>10.8;14.9</t>
-  </si>
-  <si>
-    <t>15.0;16.3</t>
-  </si>
-  <si>
-    <t>0;10.1</t>
-  </si>
-  <si>
-    <t>10.2;10.9</t>
-  </si>
-  <si>
-    <t>11.0;15.2</t>
-  </si>
-  <si>
-    <t>15.3;16.6</t>
-  </si>
-  <si>
-    <t>0;10.3</t>
-  </si>
-  <si>
-    <t>10.4;11.1</t>
-  </si>
-  <si>
-    <t>11.2;15.5</t>
-  </si>
-  <si>
-    <t>15.6;16.9</t>
-  </si>
-  <si>
-    <t>0;10.5</t>
-  </si>
-  <si>
-    <t>10.6;11.3</t>
-  </si>
-  <si>
-    <t>11.4;15.8</t>
-  </si>
-  <si>
-    <t>15.9;17.2</t>
-  </si>
-  <si>
-    <t>0;10.7</t>
-  </si>
-  <si>
-    <t>10.8;11.5</t>
-  </si>
-  <si>
-    <t>11.6;16.0</t>
-  </si>
-  <si>
-    <t>16.1;17.5</t>
-  </si>
-  <si>
-    <t>0;10.9</t>
-  </si>
-  <si>
-    <t>11.0;11.7</t>
-  </si>
-  <si>
-    <t>11.8;16.3</t>
-  </si>
-  <si>
-    <t>16.4;17.8</t>
-  </si>
-  <si>
-    <t>0;11.0</t>
-  </si>
-  <si>
-    <t>11.1;11.9</t>
-  </si>
-  <si>
-    <t>12.0;16.6</t>
-  </si>
-  <si>
-    <t>16.7;18.1</t>
-  </si>
-  <si>
-    <t>0;11.2</t>
-  </si>
-  <si>
-    <t>11.3;12.1</t>
-  </si>
-  <si>
-    <t>12.2;16.9</t>
-  </si>
-  <si>
-    <t>17.0;18.4</t>
-  </si>
-  <si>
-    <t>0;11.4</t>
-  </si>
-  <si>
-    <t>11.5;12.3</t>
-  </si>
-  <si>
-    <t>12.4;17.2</t>
-  </si>
-  <si>
-    <t>17.3;18.8</t>
-  </si>
-  <si>
-    <t>0;11.6</t>
-  </si>
-  <si>
-    <t>11.7;12.5</t>
-  </si>
-  <si>
-    <t>12.6;17.5</t>
-  </si>
-  <si>
-    <t>17.6;19.1</t>
-  </si>
-  <si>
-    <t>0;11.8</t>
-  </si>
-  <si>
-    <t>11.9;12.8</t>
-  </si>
-  <si>
-    <t>12.9;17.9</t>
-  </si>
-  <si>
-    <t>18.0;19.5</t>
-  </si>
-  <si>
-    <t>0;12.0</t>
-  </si>
-  <si>
-    <t>12.1;13.0</t>
-  </si>
-  <si>
-    <t>13.1;18.2</t>
-  </si>
-  <si>
-    <t>18.3;19.9</t>
-  </si>
-  <si>
-    <t>0;12.2</t>
-  </si>
-  <si>
-    <t>12.3;13.2</t>
-  </si>
-  <si>
-    <t>13.3;18.5</t>
-  </si>
-  <si>
-    <t>18.6;20.3</t>
-  </si>
-  <si>
-    <t>0;12.4</t>
-  </si>
-  <si>
-    <t>12.5;13.5</t>
-  </si>
-  <si>
-    <t>13.6;18.9</t>
-  </si>
-  <si>
-    <t>19.0;20.7</t>
-  </si>
-  <si>
-    <t>0;12.7</t>
-  </si>
-  <si>
-    <t>12.8;13.7</t>
-  </si>
-  <si>
-    <t>13.8;19.3</t>
-  </si>
-  <si>
-    <t>19.4;21.1</t>
-  </si>
-  <si>
-    <t>0;12.9</t>
-  </si>
-  <si>
-    <t>13.0;13.9</t>
-  </si>
-  <si>
-    <t>14.0;19.7</t>
-  </si>
-  <si>
-    <t>19.8;21.6</t>
-  </si>
-  <si>
-    <t>0;13.1</t>
-  </si>
-  <si>
-    <t>13.2;14.2</t>
-  </si>
-  <si>
-    <t>14.3;20.1</t>
-  </si>
-  <si>
-    <t>20.2;22.0</t>
-  </si>
-  <si>
-    <t>0;13.3</t>
-  </si>
-  <si>
-    <t>13.4;14.4</t>
-  </si>
-  <si>
-    <t>14.5;20.5</t>
-  </si>
-  <si>
-    <t>20.6;22.5</t>
-  </si>
-  <si>
-    <t>0;13.6</t>
-  </si>
-  <si>
-    <t>13.7;14.7</t>
-  </si>
-  <si>
-    <t>14.8;20.9</t>
-  </si>
-  <si>
-    <t>21.0;22.9</t>
-  </si>
-  <si>
-    <t>0;13.8</t>
-  </si>
-  <si>
-    <t>13.9;15.0</t>
-  </si>
-  <si>
-    <t>15.1;21.3</t>
-  </si>
-  <si>
-    <t>21.4;23.4</t>
-  </si>
-  <si>
-    <t>0;14.0</t>
-  </si>
-  <si>
-    <t>14.1;15.2</t>
-  </si>
-  <si>
-    <t>15.3;21.8</t>
-  </si>
-  <si>
-    <t>21.9;23.9</t>
-  </si>
-  <si>
-    <t>0;14.3</t>
-  </si>
-  <si>
-    <t>14.4;15.5</t>
-  </si>
-  <si>
-    <t>15.6;22.2</t>
-  </si>
-  <si>
-    <t>22.3;24.4</t>
-  </si>
-  <si>
-    <t>0;14.5</t>
-  </si>
-  <si>
-    <t>14.6;15.8</t>
-  </si>
-  <si>
-    <t>15.9;22.7</t>
-  </si>
-  <si>
-    <t>22.8;25.0</t>
-  </si>
-  <si>
-    <t>0;14.8</t>
-  </si>
-  <si>
-    <t>14.9;16.1</t>
-  </si>
-  <si>
-    <t>16.2;23.1</t>
-  </si>
-  <si>
-    <t>23.2;25.5</t>
-  </si>
-  <si>
-    <t>0;15.1</t>
-  </si>
-  <si>
-    <t>15.2;16.4</t>
-  </si>
-  <si>
-    <t>16.5;23.6</t>
-  </si>
-  <si>
-    <t>23.7;26.0</t>
-  </si>
-  <si>
-    <t>0;15.3</t>
-  </si>
-  <si>
-    <t>15.4;16.7</t>
-  </si>
-  <si>
-    <t>16.8;24.1</t>
-  </si>
-  <si>
-    <t>24.2;26.6</t>
-  </si>
-  <si>
-    <t>0;15.6</t>
-  </si>
-  <si>
-    <t>15.7;17.0</t>
-  </si>
-  <si>
-    <t>17.1;24.6</t>
-  </si>
-  <si>
-    <t>24.7;27.2</t>
-  </si>
-  <si>
-    <t>0;15.9</t>
-  </si>
-  <si>
-    <t>16.0;17.3</t>
-  </si>
-  <si>
-    <t>17.4;25.1</t>
-  </si>
-  <si>
-    <t>25.2;27.8</t>
-  </si>
-  <si>
-    <t>0;16.1</t>
-  </si>
-  <si>
-    <t>16.2;17.6</t>
-  </si>
-  <si>
-    <t>17.7;25.6</t>
-  </si>
-  <si>
-    <t>25.7;28.3</t>
-  </si>
-  <si>
-    <t>0;16.4</t>
-  </si>
-  <si>
-    <t>16.5;17.9</t>
-  </si>
-  <si>
-    <t>18.0;26.1</t>
-  </si>
-  <si>
-    <t>26.2;28.9</t>
-  </si>
-  <si>
-    <t>0;16.7</t>
-  </si>
-  <si>
-    <t>16.8;18.2</t>
-  </si>
-  <si>
-    <t>18.3;26.6</t>
-  </si>
-  <si>
-    <t>26.7;29.5</t>
-  </si>
-  <si>
-    <t>0;17.0</t>
-  </si>
-  <si>
-    <t>17.1;18.5</t>
-  </si>
-  <si>
-    <t>18.6;27.2</t>
-  </si>
-  <si>
-    <t>27.3;30.1</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1161,16 +1161,16 @@
         <v>65</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="10">
         <v>9.6</v>
@@ -1181,16 +1181,16 @@
         <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="10">
         <v>9.9</v>
@@ -1201,16 +1201,16 @@
         <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="11">
         <v>10.199999999999999</v>
@@ -1221,16 +1221,16 @@
         <v>68</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="11">
         <v>10.5</v>
@@ -1241,16 +1241,16 @@
         <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F6" s="11">
         <v>10.8</v>
@@ -1261,16 +1261,16 @@
         <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="11">
         <v>11.1</v>
@@ -1281,16 +1281,16 @@
         <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="11">
         <v>11.4</v>
@@ -1301,16 +1301,16 @@
         <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F9" s="11">
         <v>11.7</v>
@@ -1321,16 +1321,16 @@
         <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F10" s="11">
         <v>12</v>
@@ -1341,16 +1341,16 @@
         <v>74</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="11">
         <v>12.2</v>
@@ -1361,16 +1361,16 @@
         <v>75</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F12" s="11">
         <v>12.5</v>
@@ -1381,16 +1381,16 @@
         <v>76</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F13" s="11">
         <v>12.8</v>
@@ -1401,16 +1401,16 @@
         <v>77</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F14" s="11">
         <v>13</v>
@@ -1421,16 +1421,16 @@
         <v>78</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F15" s="11">
         <v>13.3</v>
@@ -1441,16 +1441,16 @@
         <v>79</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="F16" s="11">
         <v>13.5</v>
@@ -1461,16 +1461,16 @@
         <v>80</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F17" s="11">
         <v>13.7</v>
@@ -1481,16 +1481,16 @@
         <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="F18" s="11">
         <v>14</v>
@@ -1501,16 +1501,16 @@
         <v>82</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F19" s="11">
         <v>14.2</v>
@@ -1521,16 +1521,16 @@
         <v>83</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F20" s="11">
         <v>14.5</v>
@@ -1541,16 +1541,16 @@
         <v>84</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F21" s="11">
         <v>14.8</v>
@@ -1561,16 +1561,16 @@
         <v>85</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F22" s="11">
         <v>15.1</v>
@@ -1581,16 +1581,16 @@
         <v>86</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F23" s="11">
         <v>15.4</v>
@@ -1601,16 +1601,16 @@
         <v>87</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="E24" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="F24" s="11">
         <v>15.7</v>
@@ -1621,16 +1621,16 @@
         <v>88</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F25" s="11">
         <v>16</v>
@@ -1641,16 +1641,16 @@
         <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F26" s="11">
         <v>16.3</v>
@@ -1661,16 +1661,16 @@
         <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="F27" s="11">
         <v>16.600000000000001</v>
@@ -1681,16 +1681,16 @@
         <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="F28" s="11">
         <v>16.899999999999999</v>
@@ -1701,16 +1701,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F29" s="11">
         <v>17.2</v>
@@ -1721,16 +1721,16 @@
         <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F30" s="11">
         <v>17.5</v>
@@ -1741,16 +1741,16 @@
         <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F31" s="11">
         <v>17.8</v>
@@ -1761,16 +1761,16 @@
         <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F32" s="11">
         <v>18.100000000000001</v>
@@ -1781,16 +1781,16 @@
         <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F33" s="11">
         <v>18.399999999999999</v>
@@ -1801,16 +1801,16 @@
         <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F34" s="11">
         <v>18.8</v>
@@ -1821,16 +1821,16 @@
         <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="F35" s="11">
         <v>19.100000000000001</v>
@@ -1841,16 +1841,16 @@
         <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="F36" s="11">
         <v>19.5</v>
@@ -1861,16 +1861,16 @@
         <v>100</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F37" s="11">
         <v>19.899999999999999</v>
@@ -1881,16 +1881,16 @@
         <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F38" s="11">
         <v>20.3</v>
@@ -1901,16 +1901,16 @@
         <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="F39" s="11">
         <v>20.7</v>
@@ -1921,16 +1921,16 @@
         <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="F40" s="11">
         <v>21.1</v>
@@ -1941,16 +1941,16 @@
         <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F41" s="11">
         <v>21.6</v>
@@ -1961,16 +1961,16 @@
         <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="F42" s="11">
         <v>22</v>
@@ -1981,16 +1981,16 @@
         <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="F43" s="11">
         <v>22.5</v>
@@ -2001,16 +2001,16 @@
         <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F44" s="11">
         <v>22.9</v>
@@ -2021,16 +2021,16 @@
         <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="F45" s="11">
         <v>23.4</v>
@@ -2041,16 +2041,16 @@
         <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="F46" s="11">
         <v>23.9</v>
@@ -2061,16 +2061,16 @@
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="F47" s="11">
         <v>24.4</v>
@@ -2081,16 +2081,16 @@
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="F48" s="11">
         <v>25</v>
@@ -2101,16 +2101,16 @@
         <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="F49" s="11">
         <v>25.5</v>
@@ -2121,16 +2121,16 @@
         <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="F50" s="11">
         <v>26</v>
@@ -2141,16 +2141,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="F51" s="11">
         <v>26.6</v>
@@ -2161,16 +2161,16 @@
         <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="F52" s="11">
         <v>27.2</v>
@@ -2181,16 +2181,16 @@
         <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="F53" s="11">
         <v>27.8</v>
@@ -2201,16 +2201,16 @@
         <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="E54" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="F54" s="11">
         <v>28.3</v>
@@ -2221,16 +2221,16 @@
         <v>118</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="E55" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="F55" s="11">
         <v>28.9</v>
@@ -2241,16 +2241,16 @@
         <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="E56" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="F56" s="11">
         <v>29.5</v>
@@ -2261,16 +2261,16 @@
         <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="F57" s="11">
         <v>30.1</v>
